--- a/02_donnees/activité09/top-j0925.xlsx
+++ b/02_donnees/activité09/top-j0925.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34ad6640c2f144aa/Documents/lycée/snt/activité09/analyse/jeudi-saisie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34ad6640c2f144aa/Documents/lycée/snt/activité09/analyse/jeudi-debut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="163" documentId="13_ncr:1_{0C57FE90-3C14-466A-9734-7D8DEEA3501B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C93DDB46-E03B-45B5-9822-8E8A23D08CE9}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="13_ncr:1_{0C57FE90-3C14-466A-9734-7D8DEEA3501B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4DB61AA-C5B6-4C3F-A740-261A193812BC}"/>
   <bookViews>
     <workbookView xWindow="3105" yWindow="1890" windowWidth="24510" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,7 +532,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,15 +649,11 @@
       <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -729,9 +725,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -744,9 +738,7 @@
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
+      <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
@@ -762,12 +754,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="4" t="s">
@@ -776,9 +764,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="1">
-        <v>1</v>
-      </c>
+      <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -816,9 +802,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -878,9 +862,7 @@
         <v>45</v>
       </c>
       <c r="M11" s="1"/>
-      <c r="N11" s="1">
-        <v>1</v>
-      </c>
+      <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -899,12 +881,8 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
       <c r="L12" s="4" t="s">
         <v>45</v>
       </c>
@@ -912,9 +890,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -950,9 +926,7 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -962,9 +936,7 @@
       <c r="L14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M14" s="1">
-        <v>1</v>
-      </c>
+      <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1214,9 +1186,7 @@
       <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1224,18 +1194,12 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1">
-        <v>1</v>
-      </c>
+      <c r="K22" s="1"/>
       <c r="L22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M22" s="1">
-        <v>1</v>
-      </c>
-      <c r="N22" s="1">
-        <v>1</v>
-      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -1250,9 +1214,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
+      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1280,9 +1242,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1">
-        <v>1</v>
-      </c>
+      <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="4" t="s">
@@ -1291,9 +1251,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="1">
-        <v>1</v>
-      </c>
+      <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -1305,16 +1263,10 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1</v>
-      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1366,9 +1318,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1">
-        <v>1</v>
-      </c>
+      <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="4" t="s">
         <v>45</v>
@@ -1377,9 +1327,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -1389,9 +1337,7 @@
         <v>40</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
+      <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1404,9 +1350,7 @@
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="1">
-        <v>1</v>
-      </c>
+      <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
@@ -1630,17 +1574,11 @@
         <v>23</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1">
-        <v>1</v>
-      </c>
+      <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -1666,13 +1604,9 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1">
-        <v>1</v>
-      </c>
+      <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="1">
-        <v>1</v>
-      </c>
+      <c r="K36" s="1"/>
       <c r="L36" s="4" t="s">
         <v>45</v>
       </c>
@@ -1696,9 +1630,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="1">
-        <v>1</v>
-      </c>
+      <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="4" t="s">
         <v>45</v>
@@ -1806,9 +1738,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
-      <c r="P41" s="1">
-        <v>1</v>
-      </c>
+      <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -1868,9 +1798,7 @@
       <c r="B44" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
+      <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1882,12 +1810,8 @@
       <c r="L44" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M44" s="1">
-        <v>1</v>
-      </c>
-      <c r="N44" s="1">
-        <v>1</v>
-      </c>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
@@ -1927,9 +1851,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1">
-        <v>1</v>
-      </c>
+      <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -1940,13 +1862,9 @@
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
-      <c r="O46" s="1">
-        <v>1</v>
-      </c>
+      <c r="O46" s="1"/>
       <c r="P46" s="1"/>
-      <c r="Q46" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q46" s="1"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C47" t="str">
@@ -2020,7 +1938,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G13"/>
+      <selection activeCell="A2" sqref="A2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
